--- a/LubanTool/Gen/Datas/Summoner.xlsx
+++ b/LubanTool/Gen/Datas/Summoner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Study\2025\ARPGLearning\LubanTool\Gen\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6158632B-9570-405D-A7EB-EC83F3F330D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C016B9E2-680D-42CA-AC1C-855C67CF2BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4950" windowWidth="31110" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="3180" windowWidth="31110" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -613,7 +613,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>9001</v>
+        <v>3001</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
